--- a/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>5,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,9</t>
+          <t>-3,89; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,9</t>
+          <t>-4,31; 3,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -1,49</t>
+          <t>1,09; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 1,81</t>
+          <t>-2,08; 5,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -2,59</t>
+          <t>-2,11; 6,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -8,88</t>
+          <t>-0,48; 8,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,12</t>
+          <t>-1,77; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -1,12</t>
+          <t>-2,12; 3,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -6,55</t>
+          <t>1,73; 8,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,65%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,86%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-58,87%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,25%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,19%</t>
+          <t>76,87%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 54,98</t>
+          <t>-40,69; 88,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 25,37</t>
+          <t>-48,39; 62,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,38; -9,61</t>
+          <t>12,94; 247,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 9,52</t>
+          <t>-30,57; 132,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -11,64</t>
+          <t>-24,61; 147,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -42,19</t>
+          <t>-9,36; 188,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 16,3</t>
+          <t>-22,8; 79,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,03; -5,78</t>
+          <t>-26,85; 60,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; -34,96</t>
+          <t>20,54; 161,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>-9,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,36</t>
+          <t>-2,39; 7,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,0</t>
+          <t>-6,52; 3,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 11,91</t>
+          <t>-11,09; -1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,77</t>
+          <t>-9,73; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,14</t>
+          <t>-13,87; -2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 8,43</t>
+          <t>-18,79; -8,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,04</t>
+          <t>-4,6; 3,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,02</t>
+          <t>-9,04; -1,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,42</t>
+          <t>-13,34; -6,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>-34,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>-35,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>-58,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>-23,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>-48,19%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 88,98</t>
+          <t>-11,96; 54,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 62,1</t>
+          <t>-33,16; 25,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,94; 247,99</t>
+          <t>-54,38; -9,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 132,31</t>
+          <t>-36,9; 9,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 147,7</t>
+          <t>-52,03; -11,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 188,45</t>
+          <t>-69,7; -42,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 79,42</t>
+          <t>-20,69; 16,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 60,26</t>
+          <t>-40,03; -5,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,54; 161,66</t>
+          <t>-59,12; -34,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>6,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,67</t>
+          <t>1,38; 6,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,5</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,02</t>
+          <t>2,48; 10,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,92</t>
+          <t>-2,12; 2,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,22</t>
+          <t>-1,6; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,4</t>
+          <t>2,32; 12,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,03</t>
+          <t>0,4; 3,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,67</t>
+          <t>-0,59; 2,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,86</t>
+          <t>3,3; 9,96</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>114,97%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>350,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>118,65%</t>
+          <t>59,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>426,61%</t>
+          <t>554,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>334,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>105,16%</t>
+          <t>142,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>384,23%</t>
+          <t>1109,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 606,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 620,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,73; 1124,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 488,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 774,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,14; 1699,84</t>
+          <t>1,08; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 317,35</t>
+          <t>-23,97; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 398,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>154,73; 1084,89</t>
+          <t>169,32; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,36</t>
+          <t>-3,06; 3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,0</t>
+          <t>-2,17; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 11,91</t>
+          <t>-0,48; 7,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,77</t>
+          <t>-2,28; 4,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,14</t>
+          <t>-2,13; 4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 8,43</t>
+          <t>-0,33; 7,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,04</t>
+          <t>-1,77; 2,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,02</t>
+          <t>-1,04; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,42</t>
+          <t>0,71; 6,52</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>69,91%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 88,98</t>
+          <t>-45,79; 92,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 62,1</t>
+          <t>-35,25; 118,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 247,99</t>
+          <t>-9,49; 199,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 132,31</t>
+          <t>-39,63; 145,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 147,7</t>
+          <t>-35,82; 152,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 188,45</t>
+          <t>-8,31; 253,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 79,42</t>
+          <t>-29,64; 68,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 60,26</t>
+          <t>-20,72; 85,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 161,66</t>
+          <t>10,92; 160,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,9</t>
+          <t>-2,23; 8,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,9</t>
+          <t>-2,44; 8,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -1,49</t>
+          <t>0,27; 13,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 1,81</t>
+          <t>-6,4; 6,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -2,59</t>
+          <t>-5,43; 7,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -8,88</t>
+          <t>-8,45; 4,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,12</t>
+          <t>-2,55; 5,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -1,12</t>
+          <t>-1,9; 6,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -6,55</t>
+          <t>-0,97; 7,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,65%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,86%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-58,87%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,25%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,19%</t>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 54,98</t>
+          <t>-22,62; 135,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 25,37</t>
+          <t>-23,27; 134,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,38; -9,61</t>
+          <t>0,86; 210,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 9,52</t>
+          <t>-41,2; 69,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -11,64</t>
+          <t>-34,55; 84,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -42,19</t>
+          <t>-53,02; 50,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 16,3</t>
+          <t>-21,17; 66,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,03; -5,78</t>
+          <t>-15,25; 77,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,12; -34,96</t>
+          <t>-8,04; 93,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-9,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-15,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-12,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,03</t>
+          <t>-2,81; 10,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,26</t>
+          <t>-9,65; 3,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,59</t>
+          <t>-15,63; -4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,46</t>
+          <t>-10,51; 5,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,3</t>
+          <t>-17,18; -3,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,6</t>
+          <t>-22,21; -10,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,11</t>
+          <t>-4,29; 5,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,66</t>
+          <t>-12,04; -2,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,92</t>
+          <t>-16,67; -8,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>-18,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>-46,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-10,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>-40,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>-61,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-30,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-54,6%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 47,33</t>
+          <t>-11,75; 59,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 27,52</t>
+          <t>-41,22; 19,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 54,67</t>
+          <t>-64,46; -21,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 14,37</t>
+          <t>-36,16; 23,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 3,48</t>
+          <t>-58,43; -14,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 6,72</t>
+          <t>-74,0; -45,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 21,92</t>
+          <t>-16,81; 27,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 7,18</t>
+          <t>-46,53; -10,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 19,86</t>
+          <t>-65,19; -41,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 3,89</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 2,44</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 4,77</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 1,69</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 0,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 0,54</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 1,92</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 0,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 1,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-10,45%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-19,08%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-18,59%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-10,95%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 48,84</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-22,27; 30,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 59,62</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-30,5; 16,83</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-38,78; 6,61</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,76; 5,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 20,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-26,58; 7,34</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,29</t>
+          <t>1,39; 6,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 10,43</t>
+          <t>2,63; 10,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,45</t>
+          <t>-1,97; 2,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,47</t>
+          <t>-1,83; 3,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 12,56</t>
+          <t>2,01; 12,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,61</t>
+          <t>0,33; 3,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,37</t>
+          <t>-0,38; 2,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,96</t>
+          <t>3,16; 9,5</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08; —</t>
+          <t>-20,85; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,97; —</t>
+          <t>-37,23; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169,32; —</t>
+          <t>124,96; —</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,29</t>
+          <t>-3,24; 3,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,32</t>
+          <t>-2,39; 4,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 7,61</t>
+          <t>-0,25; 7,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,26</t>
+          <t>-2,37; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,3</t>
+          <t>-2,37; 4,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,85</t>
+          <t>-0,32; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,64</t>
+          <t>-1,72; 2,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,47</t>
+          <t>-1,1; 3,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,52</t>
+          <t>0,53; 6,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 92,14</t>
+          <t>-48,4; 87,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 118,58</t>
+          <t>-35,52; 126,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 199,91</t>
+          <t>-7,14; 223,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 145,33</t>
+          <t>-39,6; 134,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 152,74</t>
+          <t>-40,76; 143,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 253,14</t>
+          <t>-7,21; 249,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 68,46</t>
+          <t>-29,28; 83,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 85,11</t>
+          <t>-20,83; 89,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 160,56</t>
+          <t>8,44; 158,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 8,89</t>
+          <t>-2,49; 8,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,19</t>
+          <t>-2,05; 8,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 13,23</t>
+          <t>0,93; 13,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 6,22</t>
+          <t>-6,83; 6,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 7,41</t>
+          <t>-5,5; 6,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 4,03</t>
+          <t>-7,85; 3,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 5,67</t>
+          <t>-2,08; 5,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 6,21</t>
+          <t>-2,08; 6,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 7,55</t>
+          <t>-1,3; 7,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 135,34</t>
+          <t>-23,49; 136,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 134,4</t>
+          <t>-19,58; 140,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 210,76</t>
+          <t>5,22; 221,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 69,77</t>
+          <t>-43,52; 69,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 84,52</t>
+          <t>-34,89; 80,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 50,24</t>
+          <t>-50,36; 45,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 66,79</t>
+          <t>-17,33; 75,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 77,83</t>
+          <t>-16,73; 73,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 93,76</t>
+          <t>-10,52; 93,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 10,56</t>
+          <t>-2,96; 10,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 3,47</t>
+          <t>-10,25; 3,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -4,51</t>
+          <t>-15,23; -4,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 5,33</t>
+          <t>-9,59; 4,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -3,27</t>
+          <t>-17,46; -3,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -10,66</t>
+          <t>-22,34; -9,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 5,64</t>
+          <t>-4,52; 5,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -2,32</t>
+          <t>-11,63; -2,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -8,65</t>
+          <t>-16,87; -8,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 59,94</t>
+          <t>-13,2; 62,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 19,49</t>
+          <t>-44,06; 19,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,46; -21,51</t>
+          <t>-63,98; -22,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 23,79</t>
+          <t>-32,06; 21,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,43; -14,08</t>
+          <t>-60,26; -15,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,0; -45,64</t>
+          <t>-74,32; -41,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 27,21</t>
+          <t>-17,79; 27,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,53; -10,02</t>
+          <t>-45,69; -10,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,19; -41,54</t>
+          <t>-66,43; -40,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,89</t>
+          <t>-0,82; 4,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,44</t>
+          <t>-2,75; 2,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,77</t>
+          <t>-0,92; 4,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,69</t>
+          <t>-3,96; 1,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,59</t>
+          <t>-4,88; 0,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,54</t>
+          <t>-5,16; 0,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,92</t>
+          <t>-1,73; 2,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,69</t>
+          <t>-3,17; 0,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,87</t>
+          <t>-1,89; 2,07</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 48,84</t>
+          <t>-8,19; 50,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 30,3</t>
+          <t>-25,69; 27,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 59,62</t>
+          <t>-9,37; 56,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 16,83</t>
+          <t>-30,93; 15,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 6,61</t>
+          <t>-38,04; 4,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 5,46</t>
+          <t>-38,61; 2,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 20,24</t>
+          <t>-15,07; 23,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 7,34</t>
+          <t>-27,39; 7,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 19,86</t>
+          <t>-16,64; 21,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,31</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>5,94</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,35</t>
+          <t>-2,4; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,04</t>
+          <t>-1,63; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,51</t>
+          <t>2,04; 12,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,43</t>
+          <t>1,46; 6,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,41</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 12,97</t>
+          <t>2,44; 10,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,7</t>
+          <t>0,27; 3,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,51</t>
+          <t>-0,41; 2,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,5</t>
+          <t>3,04; 9,67</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>22,85%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>59,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>557,55%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22,85%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>59,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>554,04%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>334,62%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1109,21%</t>
+          <t>1087,82%</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>10,92; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,23; —</t>
+          <t>-25,73; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>124,96; —</t>
+          <t>120,58; —</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,31</t>
+          <t>-2,13; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,26</t>
+          <t>-2,14; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,91</t>
+          <t>-0,44; 7,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,25</t>
+          <t>-2,77; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,37</t>
+          <t>-2,26; 4,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 8,24</t>
+          <t>-0,31; 7,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,95</t>
+          <t>-1,74; 2,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,7</t>
+          <t>-1,37; 3,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,23</t>
+          <t>0,45; 5,96</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68,1%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,19%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>20,6%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>64,57%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,5%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>21,13%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>63,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 87,35</t>
+          <t>-37,88; 121,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 126,31</t>
+          <t>-39,23; 132,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 223,62</t>
+          <t>-11,82; 228,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 134,85</t>
+          <t>-43,47; 93,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 143,32</t>
+          <t>-35,78; 120,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 249,89</t>
+          <t>-4,9; 215,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 83,34</t>
+          <t>-30,29; 72,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 89,7</t>
+          <t>-22,95; 84,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 158,86</t>
+          <t>4,13; 151,44</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,29</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3,06</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,55</t>
+          <t>-6,46; 5,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,3</t>
+          <t>-5,42; 6,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 13,34</t>
+          <t>-7,94; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 6,51</t>
+          <t>-2,01; 9,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 6,87</t>
+          <t>-2,55; 8,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 3,95</t>
+          <t>0,25; 12,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,86</t>
+          <t>-2,5; 6,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,08</t>
+          <t>-2,14; 6,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,56</t>
+          <t>-1,75; 6,82</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-14,74%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>37,19%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>34,64%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>79,96%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,18%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>25,94%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 136,89</t>
+          <t>-42,77; 68,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 140,06</t>
+          <t>-33,55; 78,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 221,17</t>
+          <t>-51,28; 51,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 69,88</t>
+          <t>-18,3; 152,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 80,04</t>
+          <t>-20,92; 128,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 45,09</t>
+          <t>0,95; 213,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 75,06</t>
+          <t>-20,12; 72,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 73,14</t>
+          <t>-16,95; 75,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 93,85</t>
+          <t>-13,99; 79,72</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-10,51</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-16,91</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,72</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-3,76</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-9,62</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-10,51</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,71</t>
+          <t>-13,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,94</t>
+          <t>-10,17; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 3,35</t>
+          <t>-17,32; -3,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,23; -4,01</t>
+          <t>-23,69; -11,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 4,56</t>
+          <t>-3,14; 11,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -3,39</t>
+          <t>-9,71; 3,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -9,45</t>
+          <t>-16,22; -5,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,74</t>
+          <t>-5,0; 5,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -2,23</t>
+          <t>-12,18; -2,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,87; -8,53</t>
+          <t>-17,44; -8,87</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-40,31%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-64,89%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>18,02%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-18,19%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-46,61%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-10,64%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-40,31%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,36%</t>
+          <t>-49,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-54,6%</t>
+          <t>-57,75%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 62,67</t>
+          <t>-35,45; 20,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 19,16</t>
+          <t>-58,2; -14,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -22,17</t>
+          <t>-78,75; -49,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 21,55</t>
+          <t>-15,2; 61,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,26; -15,28</t>
+          <t>-40,63; 18,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,32; -41,92</t>
+          <t>-67,21; -28,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 27,34</t>
+          <t>-18,72; 24,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,69; -10,84</t>
+          <t>-46,65; -10,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -40,8</t>
+          <t>-68,53; -43,54</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,48</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,14</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,18</t>
+          <t>-3,92; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,29</t>
+          <t>-4,95; 0,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,66</t>
+          <t>-5,21; 0,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,6</t>
+          <t>-0,86; 4,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 0,5</t>
+          <t>-2,58; 2,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 0,31</t>
+          <t>-1,31; 4,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,14</t>
+          <t>-1,77; 2,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,71</t>
+          <t>-3,12; 0,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,07</t>
+          <t>-2,47; 1,4</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-10,45%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-22,62%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>15,66%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-1,47%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>20,14%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-10,45%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-19,08%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-4,78%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 50,53</t>
+          <t>-30,1; 14,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 27,18</t>
+          <t>-38,25; 3,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 56,29</t>
+          <t>-40,98; 1,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 15,53</t>
+          <t>-9,16; 47,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 4,96</t>
+          <t>-25,15; 27,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 2,69</t>
+          <t>-12,65; 49,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 23,1</t>
+          <t>-15,13; 21,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 7,65</t>
+          <t>-26,87; 7,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 21,74</t>
+          <t>-21,77; 14,29</t>
         </is>
       </c>
     </row>
